--- a/xlsx/country_comparison/support_match_positive.xlsx
+++ b/xlsx/country_comparison/support_match_positive.xlsx
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.791044776119403</v>
+        <v>0.774647887323944</v>
       </c>
       <c r="C2" t="n">
-        <v>0.838709677419355</v>
+        <v>0.729281767955801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.862068965517241</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.691176470588235</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.779069767441861</v>
+        <v>0.762647394446558</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.746268656716418</v>
+        <v>0.788732394366197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.870967741935484</v>
+        <v>0.784530386740331</v>
       </c>
       <c r="D3" t="n">
-        <v>0.931034482758621</v>
+        <v>0.860655737704918</v>
       </c>
       <c r="E3" t="n">
-        <v>0.911764705882353</v>
+        <v>0.847826086956522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.872093023255814</v>
+        <v>0.813997717763408</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_match_positive.xlsx
+++ b/xlsx/country_comparison/support_match_positive.xlsx
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.774647887323944</v>
+        <v>0.775806451612903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.729281767955801</v>
+        <v>0.756935270805812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.819672131147541</v>
+        <v>0.848987108655617</v>
       </c>
       <c r="E2" t="n">
-        <v>0.739130434782609</v>
+        <v>0.819875776397516</v>
       </c>
       <c r="F2" t="n">
-        <v>0.762647394446558</v>
+        <v>0.762391222096103</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.788732394366197</v>
+        <v>0.833870967741935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.784530386740331</v>
+        <v>0.800528401585205</v>
       </c>
       <c r="D3" t="n">
-        <v>0.860655737704918</v>
+        <v>0.883977900552486</v>
       </c>
       <c r="E3" t="n">
-        <v>0.847826086956522</v>
+        <v>0.840062111801242</v>
       </c>
       <c r="F3" t="n">
-        <v>0.813997717763408</v>
+        <v>0.813847900113507</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_match_positive.xlsx
+++ b/xlsx/country_comparison/support_match_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Petition and support answers match</t>
@@ -386,45 +389,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.775806451612903</v>
+        <v>0.76318250578778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.756935270805812</v>
+        <v>0.794230150907096</v>
       </c>
       <c r="D2" t="n">
-        <v>0.848987108655617</v>
+        <v>0.777270970063171</v>
       </c>
       <c r="E2" t="n">
-        <v>0.819875776397516</v>
+        <v>0.782440145037684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.762391222096103</v>
+        <v>0.845714567862444</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.812474497336983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.833870967741935</v>
+        <v>0.815487370828978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.800528401585205</v>
+        <v>0.836801621945625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.883977900552486</v>
+        <v>0.836858091539441</v>
       </c>
       <c r="E3" t="n">
-        <v>0.840062111801242</v>
+        <v>0.827942814121829</v>
       </c>
       <c r="F3" t="n">
-        <v>0.813847900113507</v>
+        <v>0.874385296969579</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.848901880085418</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_match_positive.xlsx
+++ b/xlsx/country_comparison/support_match_positive.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.76318250578778</v>
+        <v>0.770973101488966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.794230150907096</v>
+        <v>0.794252798762614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.777270970063171</v>
+        <v>0.780658261476987</v>
       </c>
       <c r="E2" t="n">
-        <v>0.782440145037684</v>
+        <v>0.772565799586418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.845714567862444</v>
+        <v>0.848791864987494</v>
       </c>
       <c r="G2" t="n">
-        <v>0.812474497336983</v>
+        <v>0.79536729753349</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.815487370828978</v>
+        <v>0.812446685007722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.836801621945625</v>
+        <v>0.836223685764702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.836858091539441</v>
+        <v>0.844005759822672</v>
       </c>
       <c r="E3" t="n">
-        <v>0.827942814121829</v>
+        <v>0.797050165429443</v>
       </c>
       <c r="F3" t="n">
-        <v>0.874385296969579</v>
+        <v>0.87705116589035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.848901880085418</v>
+        <v>0.843561919834616</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_match_positive.xlsx
+++ b/xlsx/country_comparison/support_match_positive.xlsx
@@ -398,22 +398,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.770973101488966</v>
+        <v>0.77093694391114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.794252798762614</v>
+        <v>0.794902355303735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.780658261476987</v>
+        <v>0.780650634288796</v>
       </c>
       <c r="E2" t="n">
-        <v>0.772565799586418</v>
+        <v>0.772566570401049</v>
       </c>
       <c r="F2" t="n">
-        <v>0.848791864987494</v>
+        <v>0.853805033251845</v>
       </c>
       <c r="G2" t="n">
-        <v>0.79536729753349</v>
+        <v>0.795360436317031</v>
       </c>
     </row>
     <row r="3">
@@ -421,22 +421,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.812446685007722</v>
+        <v>0.812431385229847</v>
       </c>
       <c r="C3" t="n">
-        <v>0.836223685764702</v>
+        <v>0.835034036331274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.844005759822672</v>
+        <v>0.844033245693018</v>
       </c>
       <c r="E3" t="n">
-        <v>0.797050165429443</v>
+        <v>0.797073349797799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.87705116589035</v>
+        <v>0.864031129848297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.843561919834616</v>
+        <v>0.843559889489483</v>
       </c>
     </row>
   </sheetData>
